--- a/data/trans_dic/P19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>7,75; 14,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>10,37; 17,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>6,5; 12,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>3,7; 13,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,32; 10,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,87; 16,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,81; 11,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>1,87; 7,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,17; 11,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>11,28; 16,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,75; 11,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>3,48; 8,67</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>11,25; 17,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>15,71; 21,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>11,27; 17,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>7,51; 15,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>8,45; 13,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>9,42; 14,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>9,42; 14,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,35; 11,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,48; 14,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>13,16; 17,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>11,15; 15,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,77; 12,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>15,06; 22,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>19,58; 26,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>11,38; 17,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,14; 14,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,17; 15,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>11,76; 17,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,28; 13,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,87; 10,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>13,2; 17,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>16,31; 20,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>10,55; 14,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>8,44; 12,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>22,58; 32,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>20,76; 28,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>14,75; 21,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>10,39; 16,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>16,37; 24,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>14,99; 22,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>9,19; 14,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>7,8; 11,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>20,67; 26,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,91; 23,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,69; 17,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,66; 13,18</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>21,13; 31,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>27,17; 37,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>22,24; 31,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,89; 23,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>15,87; 24,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>18,3; 27,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>9,93; 17,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>11,92; 16,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,71; 26,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,87; 30,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,75; 22,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,06; 18,8</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,15%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>23,13; 32,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>34,05; 44,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>23,03; 31,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,69; 27,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>14,93; 22,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>21,73; 29,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>17,24; 25,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,73; 18,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,27; 25,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>28,06; 34,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>20,84; 26,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,9; 21,18</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>18,43; 21,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,96; 26,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>16,5; 19,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,2; 17,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,43; 16,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,28; 19,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>11,77; 14,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,94; 12,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,14; 18,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>19,9; 22,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>14,29; 16,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,31; 14,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,67</t>
+          <t>3,59; 14,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,66</t>
+          <t>1,82; 7,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,67</t>
+          <t>3,56; 9,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,34</t>
+          <t>7,52; 15,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,88</t>
+          <t>4,63; 10,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,47</t>
+          <t>6,75; 11,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,86</t>
+          <t>9,01; 14,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,9</t>
+          <t>6,93; 10,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 12,02</t>
+          <t>8,37; 11,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,35</t>
+          <t>4,63; 15,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,36</t>
+          <t>7,28; 11,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,18</t>
+          <t>5,4; 12,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>16,89%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,18</t>
+          <t>16,78; 22,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,19</t>
+          <t>11,89; 16,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 18,8</t>
+          <t>15,03; 18,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,13; 32,49</t>
+          <t>23,88; 35,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,05; 44,16</t>
+          <t>32,68; 45,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,03; 31,81</t>
+          <t>21,49; 32,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,28</t>
+          <t>19,99; 27,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,05</t>
+          <t>15,52; 24,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,73; 29,05</t>
+          <t>19,17; 28,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,24; 25,59</t>
+          <t>13,48; 22,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 18,2</t>
+          <t>3,93; 16,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 25,49</t>
+          <t>21,13; 28,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,06; 34,04</t>
+          <t>26,37; 34,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,84</t>
+          <t>18,16; 25,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,18</t>
+          <t>8,06; 19,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>17,03; 32,57</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32,8; 47,54</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21,61; 35,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 29,66</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 22,63</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 31,99</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 32,62</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 22,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 24,37</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 36,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 31,63</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 24,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>18,43; 21,69</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>22,96; 26,31</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>16,5; 19,51</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,2; 17,0</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 16,17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>13,43; 16,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>16,28; 19,2</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>11,77; 14,41</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,94; 12,01</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 11,57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>16,14; 18,29</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>19,9; 22,08</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>14,29; 16,27</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>12,31; 14,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 13,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,29</t>
+          <t>8,03; 14,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 17,74</t>
+          <t>10,61; 17,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,89</t>
+          <t>6,35; 12,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 14,35</t>
+          <t>3,76; 13,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,72</t>
+          <t>5,48; 10,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 16,76</t>
+          <t>9,95; 16,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,97</t>
+          <t>6,07; 11,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,45</t>
+          <t>1,86; 7,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,39</t>
+          <t>7,19; 11,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,35</t>
+          <t>10,97; 16,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,21</t>
+          <t>6,86; 11,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,24</t>
+          <t>3,46; 9,64</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,24</t>
+          <t>11,16; 17,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 21,96</t>
+          <t>15,41; 21,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,68</t>
+          <t>11,48; 17,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,14</t>
+          <t>7,51; 15,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,78</t>
+          <t>8,42; 13,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,84</t>
+          <t>9,42; 14,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,88</t>
+          <t>9,26; 14,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,43</t>
+          <t>4,49; 10,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,48</t>
+          <t>10,46; 14,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,48</t>
+          <t>13,01; 17,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 15,44</t>
+          <t>11,15; 15,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,85</t>
+          <t>6,66; 11,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 22,05</t>
+          <t>15,53; 22,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 26,45</t>
+          <t>19,45; 26,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,46</t>
+          <t>11,41; 17,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 14,67</t>
+          <t>8,76; 14,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,58</t>
+          <t>10,29; 15,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,16</t>
+          <t>11,94; 17,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,24</t>
+          <t>7,99; 13,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,9</t>
+          <t>6,81; 10,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 17,61</t>
+          <t>13,26; 17,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 20,75</t>
+          <t>16,13; 20,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,39</t>
+          <t>10,36; 14,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 11,95</t>
+          <t>8,51; 11,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 32,14</t>
+          <t>23,2; 32,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,76; 28,6</t>
+          <t>20,73; 28,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,89</t>
+          <t>14,68; 21,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,28</t>
+          <t>4,35; 15,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,04</t>
+          <t>16,52; 24,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,03</t>
+          <t>14,57; 21,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,91</t>
+          <t>9,38; 15,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,08</t>
+          <t>7,4; 11,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,67</t>
+          <t>20,7; 26,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,94</t>
+          <t>18,79; 24,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,18</t>
+          <t>12,42; 17,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,26</t>
+          <t>5,75; 12,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,13; 31,94</t>
+          <t>21,45; 32,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,17; 37,69</t>
+          <t>27,14; 37,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,24; 31,76</t>
+          <t>22,0; 31,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,88</t>
+          <t>17,12; 23,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,87; 24,72</t>
+          <t>15,91; 24,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 27,08</t>
+          <t>18,03; 26,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,23</t>
+          <t>9,95; 17,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 16,18</t>
+          <t>11,87; 16,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 26,6</t>
+          <t>19,49; 26,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,28</t>
+          <t>23,82; 30,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 22,76</t>
+          <t>16,73; 22,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 18,77</t>
+          <t>14,91; 18,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,88; 35,96</t>
+          <t>23,89; 36,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,68; 45,85</t>
+          <t>32,85; 45,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,49; 32,97</t>
+          <t>21,4; 32,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,99; 27,36</t>
+          <t>19,59; 26,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 24,73</t>
+          <t>15,52; 24,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 28,73</t>
+          <t>19,18; 28,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 22,98</t>
+          <t>13,18; 22,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 16,76</t>
+          <t>3,75; 16,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,13; 28,61</t>
+          <t>20,07; 27,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,37; 34,88</t>
+          <t>26,67; 34,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,16; 25,62</t>
+          <t>18,42; 25,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 19,9</t>
+          <t>8,09; 20,35</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 32,57</t>
+          <t>17,41; 33,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32,8; 47,54</t>
+          <t>31,84; 48,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,61; 35,14</t>
+          <t>21,95; 34,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,56; 29,66</t>
+          <t>21,04; 29,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,63</t>
+          <t>11,1; 22,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,94; 31,99</t>
+          <t>22,2; 32,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,96; 32,62</t>
+          <t>19,47; 32,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,97; 22,25</t>
+          <t>16,77; 22,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 24,37</t>
+          <t>15,54; 24,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,82; 36,08</t>
+          <t>27,42; 36,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,14; 31,63</t>
+          <t>21,88; 31,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,08</t>
+          <t>19,74; 24,12</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,43; 21,69</t>
+          <t>18,37; 21,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,96; 26,31</t>
+          <t>23,07; 26,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,5; 19,51</t>
+          <t>16,39; 19,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,17</t>
+          <t>11,18; 16,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,2</t>
+          <t>13,28; 15,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,28; 19,2</t>
+          <t>16,21; 18,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,41</t>
+          <t>11,7; 14,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,57</t>
+          <t>8,63; 11,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,14; 18,29</t>
+          <t>16,06; 18,26</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,9; 22,08</t>
+          <t>19,98; 22,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,27</t>
+          <t>14,36; 16,34</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 13,59</t>
+          <t>10,75; 13,57</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por la extracción de algún diente o muela</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39078</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52093</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32521</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28499</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28867</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48041</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29973</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11850</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67946</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>100134</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62494</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40349</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28862; 51062</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40249; 67154</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22405; 44866</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14431; 52784</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20614; 40428</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36901; 62545</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21360; 41068</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5641; 22417</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52899; 86138</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>82265; 120142</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48351; 77573</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23797; 66205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80735</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>110089</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70533</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44742</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59543</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65765</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37274</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>140279</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>175854</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>130405</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64284; 101705</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>92010; 131165</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56630; 87510</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30201; 61410</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46111; 76621</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52527; 82476</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46005; 74431</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22452; 53323</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>117518; 163470</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>150233; 199724</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>110400; 151557</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>60118; 105872</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>92873</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>133982</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>78975</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60512</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77868</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94864</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60119</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46223</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>170741</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>228846</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139095</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>106735</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>78091; 114259</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>114133; 156451</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63646; 96083</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45830; 76923</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62085; 96512</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78755; 115824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45796; 75516</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36246; 57235</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>146670; 197390</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>200991; 257921</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>117121; 163671</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89791; 125461</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>111475</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>134285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91910</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>89096</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>87820</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64862</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64312</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>199295</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>236905</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>156772</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>153408</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>93898; 131268</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112517; 156790</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>75203; 111253</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37499; 131110</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>72559; 105409</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>82094; 121696</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51087; 82783</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51834; 77166</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>174731; 225347</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>207853; 266434</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>131310; 181833</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>89972; 192938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71583</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114826</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98525</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>108312</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64573</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>87292</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>52132</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74245</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>136156</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>202117</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>150657</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>182557</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>58414; 87618</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>98047; 134135</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81627; 116646</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>93572; 126913</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50763; 79545</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>70248; 104644</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39276; 68239</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>63465; 86497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>115276; 156165</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>178864; 229496</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>128142; 174923</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>161179; 204450</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>62656</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>101381</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>61957</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>83938</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49213</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>71577</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48984</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111869</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>172958</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>110942</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>147187</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>50836; 77115</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>86224; 120081</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>49253; 75545</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>70386; 96510</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>38331; 61166</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57639; 87002</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36494; 61725</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22524; 99062</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>92247; 127603</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>150185; 195227</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>93410; 130128</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>77649; 195240</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31292</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73541</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>41306</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>69878</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34678</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81708</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>57402</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>79249</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>65970</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>155249</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>98708</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>149127</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22072; 42042</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>58888; 88820</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>32277; 51354</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>57956; 80251</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23121; 47109</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>67368; 98546</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44367; 74623</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68528; 90288</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>52038; 83293</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>133888; 179479</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>82024; 116494</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>135061; 165009</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>489693</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>720197</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>475728</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>484977</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>402562</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>551865</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>373344</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>376402</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>892255</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1272062</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>849072</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>861379</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>450878; 531386</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>672392; 772075</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>436630; 518235</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>374856; 544619</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>364094; 437561</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>509695; 593783</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>335473; 413296</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>308764; 417583</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>834415; 948895</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1210693; 1340636</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>794359; 903583</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>745530; 940970</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>